--- a/seguimiento/Notas_3146153_Bootstrap_React.xlsx
+++ b/seguimiento/Notas_3146153_Bootstrap_React.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\PRODUCCIÓN DE MULTIMEDIA\FICHAS 2025\4TO TRIMESTRE\01_FICHA 3146153 (BOOSTRAP, REACT 12-2pm)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresSanchez\Desktop\clone\bootstrap-react-3146153\seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC25BF30-AF80-453D-9F79-0E2187C1E3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A75EA4-4F54-4596-BA1C-132633AD647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author>AndresSanchez</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{4FC70159-1B16-4E72-93DB-FBC0A336F19C}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{5F05423D-FF2C-45ED-9D59-88ADCC66FBA7}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{23151538-68AF-45F1-BB9C-311BE71BC6FD}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{C9B49975-D55A-4A61-8986-885355E7BC0F}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{807DFA1D-7823-49A8-B597-DF65A8884D56}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{FD4A5C6F-C0D4-49AA-A1C5-91A1EE3467E0}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{A82B39B1-AAB2-4369-A202-3B947B576487}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{A78C1625-C07E-42CA-9CD1-D2F2A3F5117F}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{30854F16-0E2B-4F01-ADDD-D713B3C2B243}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{866E5A20-1F2D-41E8-8ACA-30F58B1949CC}">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{2DD09862-683B-45B9-A98D-A485DD61F26D}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{C5F9D1D8-CDA6-4D09-95A1-5AF3FA2559CB}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{430341AA-59BA-4570-9FF4-E4577838A5C0}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{3C86E40A-2B32-4B3F-A311-D240168959F0}">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{AF053407-DA1C-495A-A6DB-CC58178BE57E}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{EE812B38-5E7C-42EE-90CD-C4DF4AF153A2}">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{B594F621-F144-495A-8DBA-64774E9666E7}">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{AD84EDE0-059D-4DA8-BD8F-B077674C06BA}">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{8C28CA96-72FC-41CB-A5A6-885EC7E07CA7}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{87CDF4C7-2FA7-47C7-9B12-787B1F67E2ED}">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{48938A02-0B0B-43E0-855A-09B42779BB1B}">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{EEA3769E-02E9-42AD-B0B3-BC818E86D05D}">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{05E9FC99-6171-42E9-9458-85E817974274}">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{E361C9A1-6805-478D-A980-E7F137E9307A}">
       <text>
         <r>
           <rPr>
@@ -378,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{E7B863CC-4708-48EE-B965-756019C672B9}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{6E37A742-4262-4FAA-9F26-8CB50D1743B8}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{B7799313-DBAA-4721-9F8B-9C4B83DDE7F7}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{97316641-151C-43BE-9723-18E799033C6E}">
       <text>
         <r>
           <rPr>
@@ -426,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{D08B4568-633E-4ED6-B5FC-F8E24B92C62A}">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{F27CD4F1-6D10-4302-A272-E9754909B073}">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{5CF6FEBE-091F-4A32-8E88-875047A6A864}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{C9C53185-71F7-4E45-ADF9-437B04D6E7AA}">
       <text>
         <r>
           <rPr>
@@ -474,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{3FDBCACA-6524-4B60-A5F2-4CF4F50CCEFF}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{CAC0B2F0-6AA5-4D07-948D-6498E655CD07}">
       <text>
         <r>
           <rPr>
@@ -498,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{294C53AF-759F-4633-A19F-5111EB3FC4F4}">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{30151398-20A8-465A-A776-DEDC5537FED7}">
       <text>
         <r>
           <rPr>
@@ -522,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{2056616E-C332-44A3-9741-2F1802191762}">
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{DB9E93AF-E2AD-449D-AE21-BF6D1C8985BE}">
       <text>
         <r>
           <rPr>
@@ -546,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{2404ED31-BD11-4FB8-B473-94FA3DD437D2}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{DE8078FB-B3ED-4E5E-A212-BE67459C8248}">
       <text>
         <r>
           <rPr>
@@ -877,13 +877,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,16 +899,16 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1267,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F708CB34-4A58-471F-8250-24AE44BEB9EF}">
   <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1306,20 +1303,20 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>45965</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1328,19 +1325,19 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1351,13 +1348,13 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
-        <v>100</v>
-      </c>
-      <c r="D9" s="8">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="C9" s="7">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7">
         <v>25</v>
       </c>
     </row>
@@ -1368,13 +1365,13 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
-        <v>100</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="C10" s="7">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1385,13 +1382,13 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
-        <v>100</v>
-      </c>
-      <c r="D11" s="8">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="C11" s="7">
+        <v>100</v>
+      </c>
+      <c r="D11" s="7">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7">
         <v>25</v>
       </c>
     </row>
@@ -1402,13 +1399,13 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8">
-        <v>100</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="C12" s="7">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1419,13 +1416,13 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1436,13 +1433,13 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1453,13 +1450,13 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8">
-        <v>100</v>
-      </c>
-      <c r="D15" s="8">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="C15" s="7">
+        <v>100</v>
+      </c>
+      <c r="D15" s="7">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1470,13 +1467,13 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8">
-        <v>100</v>
-      </c>
-      <c r="D16" s="8">
-        <v>25</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1487,13 +1484,13 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8">
-        <v>100</v>
-      </c>
-      <c r="D17" s="8">
-        <v>20</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="C17" s="7">
+        <v>100</v>
+      </c>
+      <c r="D17" s="7">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1504,14 +1501,14 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8">
-        <v>100</v>
-      </c>
-      <c r="D18" s="8">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3">
-        <v>20</v>
+      <c r="C18" s="7">
+        <v>100</v>
+      </c>
+      <c r="D18" s="7">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1521,13 +1518,13 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8">
-        <v>100</v>
-      </c>
-      <c r="D19" s="8">
-        <v>25</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="C19" s="7">
+        <v>100</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7">
         <v>25</v>
       </c>
     </row>
@@ -1538,13 +1535,13 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8">
-        <v>100</v>
-      </c>
-      <c r="D20" s="8">
-        <v>20</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="C20" s="7">
+        <v>100</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25</v>
+      </c>
+      <c r="E20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1555,13 +1552,13 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8">
-        <v>100</v>
-      </c>
-      <c r="D21" s="8">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>25</v>
+      </c>
+      <c r="E21" s="7">
         <v>20</v>
       </c>
     </row>
@@ -1572,13 +1569,13 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8">
-        <v>100</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="C22" s="7">
+        <v>100</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1589,13 +1586,13 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1606,13 +1603,13 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1623,14 +1620,14 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="8">
-        <v>100</v>
-      </c>
-      <c r="D25" s="8">
-        <v>20</v>
-      </c>
-      <c r="E25" s="8">
-        <v>20</v>
+      <c r="C25" s="7">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1640,13 +1637,13 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="8">
-        <v>100</v>
-      </c>
-      <c r="D26" s="8">
-        <v>20</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="C26" s="7">
+        <v>100</v>
+      </c>
+      <c r="D26" s="7">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1657,14 +1654,14 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8">
-        <v>100</v>
-      </c>
-      <c r="D27" s="8">
-        <v>20</v>
-      </c>
-      <c r="E27" s="8">
-        <v>20</v>
+      <c r="C27" s="7">
+        <v>100</v>
+      </c>
+      <c r="D27" s="7">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1674,14 +1671,14 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="8">
-        <v>100</v>
-      </c>
-      <c r="D28" s="8">
-        <v>20</v>
-      </c>
-      <c r="E28" s="8">
-        <v>20</v>
+      <c r="C28" s="7">
+        <v>100</v>
+      </c>
+      <c r="D28" s="7">
+        <v>25</v>
+      </c>
+      <c r="E28" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1691,13 +1688,13 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="8">
-        <v>100</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="C29" s="7">
+        <v>100</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1708,13 +1705,13 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="8">
-        <v>100</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="C30" s="7">
+        <v>100</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1725,14 +1722,14 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="8">
-        <v>100</v>
-      </c>
-      <c r="D31" s="8">
-        <v>20</v>
-      </c>
-      <c r="E31" s="8">
-        <v>20</v>
+      <c r="C31" s="7">
+        <v>100</v>
+      </c>
+      <c r="D31" s="7">
+        <v>25</v>
+      </c>
+      <c r="E31" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1742,14 +1739,14 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="8">
-        <v>100</v>
-      </c>
-      <c r="D32" s="8">
-        <v>20</v>
-      </c>
-      <c r="E32" s="8">
-        <v>20</v>
+      <c r="C32" s="7">
+        <v>100</v>
+      </c>
+      <c r="D32" s="7">
+        <v>25</v>
+      </c>
+      <c r="E32" s="7">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/seguimiento/Notas_3146153_Bootstrap_React.xlsx
+++ b/seguimiento/Notas_3146153_Bootstrap_React.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresSanchez\Desktop\clone\bootstrap-react-3146153\seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A75EA4-4F54-4596-BA1C-132633AD647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C76209-EDC0-431F-B06C-9E8C8BF8BD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author>AndresSanchez</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{5F05423D-FF2C-45ED-9D59-88ADCC66FBA7}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{82D64BDC-232C-4B19-9A73-C228C0185875}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{C9B49975-D55A-4A61-8986-885355E7BC0F}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{639800E7-E83C-4BCB-A1C2-B09A1F08CEC0}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{FD4A5C6F-C0D4-49AA-A1C5-91A1EE3467E0}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{B3ED09DE-1F1A-4F38-979D-4EF3818D457E}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{A78C1625-C07E-42CA-9CD1-D2F2A3F5117F}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{993A570B-01AF-4891-99FC-227F37FE280D}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{866E5A20-1F2D-41E8-8ACA-30F58B1949CC}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{20F08C87-434C-4BB4-AB28-5E183B46D863}">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{C5F9D1D8-CDA6-4D09-95A1-5AF3FA2559CB}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{EBFB4728-98C0-41CA-924C-CB2D113DA2DD}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{3C86E40A-2B32-4B3F-A311-D240168959F0}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{C45CF117-846F-43CE-A582-CC32C090FD1B}">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{EE812B38-5E7C-42EE-90CD-C4DF4AF153A2}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{0AC18D51-0E64-4325-A0DA-2C4BBB32CF1D}">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{AD84EDE0-059D-4DA8-BD8F-B077674C06BA}">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{BF8B79C8-3B54-4296-AC6C-2485264AD9AE}">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{87CDF4C7-2FA7-47C7-9B12-787B1F67E2ED}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{9F819453-0BEE-4BAE-B174-8C730FEB229D}">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{EEA3769E-02E9-42AD-B0B3-BC818E86D05D}">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{55C3461A-DA94-48E3-89C7-EBBA09CEFE02}">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{E361C9A1-6805-478D-A980-E7F137E9307A}">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{03C0B702-28C0-47C4-A94A-D73EB511A984}">
       <text>
         <r>
           <rPr>
@@ -378,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{6E37A742-4262-4FAA-9F26-8CB50D1743B8}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{FF9B5DE6-1E13-4624-972C-A586DF6F94B7}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{97316641-151C-43BE-9723-18E799033C6E}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{B16E4EFB-C062-45E9-998F-6D9D33F1700C}">
       <text>
         <r>
           <rPr>
@@ -426,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{F27CD4F1-6D10-4302-A272-E9754909B073}">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{B0D56379-DFBF-40B8-8587-CA964A0BAD82}">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{C9C53185-71F7-4E45-ADF9-437B04D6E7AA}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{E9DFB0D7-40DA-47A4-8222-8A0342BBC056}">
       <text>
         <r>
           <rPr>
@@ -474,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{CAC0B2F0-6AA5-4D07-948D-6498E655CD07}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{722B4007-3F3A-405E-8F0D-3F91903D94D1}">
       <text>
         <r>
           <rPr>
@@ -498,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{30151398-20A8-465A-A776-DEDC5537FED7}">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{1763421E-B9EF-4DF6-9DF4-8A118045EBC3}">
       <text>
         <r>
           <rPr>
@@ -522,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{DB9E93AF-E2AD-449D-AE21-BF6D1C8985BE}">
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{E78CBAED-11D6-4114-B25F-F65E19EF4BC4}">
       <text>
         <r>
           <rPr>
@@ -546,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{DE8078FB-B3ED-4E5E-A212-BE67459C8248}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{EEC5B216-D02F-4C55-8305-09E2ED5DB16E}">
       <text>
         <r>
           <rPr>
@@ -1265,7 +1265,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E32"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1603,14 +1603,14 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="6">
-        <v>0</v>
+      <c r="C24" s="7">
+        <v>100</v>
       </c>
       <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="6">
-        <v>0</v>
+      <c r="E24" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
